--- a/biology/Botanique/Triticum_sphaerococcum/Triticum_sphaerococcum.xlsx
+++ b/biology/Botanique/Triticum_sphaerococcum/Triticum_sphaerococcum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Triticum sphaerococcum, le blé indien, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire du sous-continent indien. C'est une espèce de blé hexaploïde, au génome de type AABBDD, génétiquement proche du blé tendre (Triticum aestivum). Le blé indien est considéré par certains auteurs comme une sous-espèce du blé tendre sous le nom de Triticum aestivum subsp. sphaerococcum.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (20 avril 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (20 avril 2018) :
 Triticum sphaerococcum var. rotundatum Percival
 Triticum sphaerocuccum var. globosum Percival</t>
         </is>
